--- a/kpi ca nhan/nam 2020/ketqua/lanh dao.xlsx
+++ b/kpi ca nhan/nam 2020/ketqua/lanh dao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac365.vn/Downloads/kpi/kpi ca nhan/nam 2020/ketqua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/kpi/kpi ca nhan/nam 2020/ketqua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A9B56D-4934-814D-9804-B9615E75CBEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B552518-8D7D-3B4B-9AFE-2F74E91150C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="24520" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,9 +2485,189 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="75" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="76" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="77" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="78" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="34" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="79" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="80" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="73" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="74" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="81" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="73" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="74" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="66" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="67" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="68" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="69" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2502,186 +2682,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="66" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="67" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="68" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="69" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="75" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="76" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="77" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="78" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="34" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="79" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="80" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="73" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="74" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="81" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="73" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="74" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3763,57 +3763,57 @@
   <sheetData>
     <row r="1" spans="1:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21"/>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="151" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="136" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="135" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="138" t="s">
+      <c r="B3" s="185"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="198" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="135" t="s">
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="195" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="76"/>
@@ -3852,12 +3852,12 @@
       <c r="A6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
       <c r="F6" s="106" t="s">
         <v>49</v>
       </c>
@@ -3881,12 +3881,12 @@
       <c r="A7" s="81">
         <v>1</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="150"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="108">
         <v>0.4</v>
       </c>
@@ -3910,12 +3910,12 @@
       <c r="A8" s="83">
         <v>2</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="186" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="188"/>
       <c r="F8" s="107">
         <v>0.6</v>
       </c>
@@ -3946,8 +3946,8 @@
       <c r="D9" s="62"/>
       <c r="E9" s="64"/>
       <c r="F9" s="62"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
       <c r="I9" s="65"/>
       <c r="J9" s="70"/>
       <c r="K9" s="85">
@@ -4053,8 +4053,8 @@
       <c r="D13" s="100"/>
       <c r="E13" s="99"/>
       <c r="F13" s="100"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
       <c r="I13" s="65"/>
       <c r="J13" s="70"/>
       <c r="K13" s="78">
@@ -4066,12 +4066,12 @@
       <c r="A14" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
       <c r="F14" s="106" t="s">
         <v>60</v>
       </c>
@@ -4095,12 +4095,12 @@
       <c r="A15" s="90">
         <v>1</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="179"/>
       <c r="F15" s="104">
         <v>0.05</v>
       </c>
@@ -4121,12 +4121,12 @@
         <f t="shared" ref="A16:A22" si="0">A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="155"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
       <c r="F16" s="103">
         <v>0.05</v>
       </c>
@@ -4145,12 +4145,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="155"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="103">
         <v>0.05</v>
       </c>
@@ -4169,12 +4169,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="161"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="182"/>
       <c r="F18" s="103">
         <v>0.05</v>
       </c>
@@ -4193,12 +4193,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="103">
         <v>0.05</v>
       </c>
@@ -4217,12 +4217,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
       <c r="F20" s="103">
         <v>0.05</v>
       </c>
@@ -4241,12 +4241,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="155"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="103">
         <v>0.05</v>
       </c>
@@ -4265,12 +4265,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B22" s="197" t="s">
+      <c r="B22" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="199"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="161"/>
       <c r="F22" s="105">
         <v>0.05</v>
       </c>
@@ -4295,8 +4295,8 @@
       <c r="D23" s="62"/>
       <c r="E23" s="64"/>
       <c r="F23" s="62"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
       <c r="I23" s="65"/>
       <c r="J23" s="70"/>
       <c r="K23" s="93">
@@ -4308,12 +4308,12 @@
       <c r="A24" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="196" t="s">
+      <c r="B24" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="196"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
       <c r="F24" s="106" t="s">
         <v>71</v>
       </c>
@@ -4323,22 +4323,22 @@
       <c r="H24" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="194" t="s">
+      <c r="I24" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="194"/>
-      <c r="K24" s="195"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157"/>
     </row>
     <row r="25" spans="1:11" s="36" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="90">
         <v>1</v>
       </c>
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="187"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
       <c r="F25" s="104">
         <f>K5</f>
         <v>0.78800000000000003</v>
@@ -4350,24 +4350,24 @@
         <f>F25*G25</f>
         <v>0.15760000000000002</v>
       </c>
-      <c r="I25" s="176">
+      <c r="I25" s="134">
         <f>SUM(H25:H27)</f>
         <v>0.40610000000000002</v>
       </c>
-      <c r="J25" s="177"/>
-      <c r="K25" s="178"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
     </row>
     <row r="26" spans="1:11" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
         <f>A25+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="190"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="151"/>
       <c r="F26" s="103">
         <f>K9</f>
         <v>0.35499999999999998</v>
@@ -4379,21 +4379,21 @@
         <f>F26*G26</f>
         <v>0.24849999999999997</v>
       </c>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="181"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="139"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92">
         <f>A26+1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="191" t="s">
+      <c r="B27" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="193"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
       <c r="F27" s="105">
         <f>K13</f>
         <v>0</v>
@@ -4405,9 +4405,9 @@
         <f>F27*G27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
     </row>
     <row r="28" spans="1:11" s="60" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="94" t="s">
@@ -4592,15 +4592,27 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="40">
-    <mergeCell ref="I25:K27"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="B32:D32"/>
@@ -4611,27 +4623,15 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="F29:K29"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I25:K27"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4644,8 +4644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABA92D0-F00D-9147-B30D-E4C310FAC37E}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4653,57 +4653,57 @@
     <row r="1" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="151" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="136" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="135" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="138" t="s">
+      <c r="B3" s="185"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="198" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="135" t="s">
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="195" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
     </row>
     <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
@@ -4735,19 +4735,19 @@
       <c r="J5" s="130"/>
       <c r="K5" s="78">
         <f>K7+K8</f>
-        <v>0.78800000000000003</v>
+        <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
       <c r="F6" s="132" t="s">
         <v>49</v>
       </c>
@@ -4771,12 +4771,12 @@
       <c r="A7" s="81">
         <v>1</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="150"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="108">
         <v>0.4</v>
       </c>
@@ -4784,28 +4784,28 @@
         <v>1</v>
       </c>
       <c r="H7" s="74">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="I7" s="41">
         <f>H7/G7</f>
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="74"/>
       <c r="K7" s="82">
         <f>F7*I7</f>
-        <v>0.32000000000000006</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="83">
         <v>2</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="186" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="188"/>
       <c r="F8" s="107">
         <v>0.6</v>
       </c>
@@ -4836,8 +4836,8 @@
       <c r="D9" s="62"/>
       <c r="E9" s="64"/>
       <c r="F9" s="62"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
       <c r="I9" s="65"/>
       <c r="J9" s="130"/>
       <c r="K9" s="85">
@@ -4943,8 +4943,8 @@
       <c r="D13" s="100"/>
       <c r="E13" s="99"/>
       <c r="F13" s="100"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
       <c r="I13" s="65"/>
       <c r="J13" s="130"/>
       <c r="K13" s="78">
@@ -4956,12 +4956,12 @@
       <c r="A14" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
       <c r="F14" s="132" t="s">
         <v>60</v>
       </c>
@@ -4985,12 +4985,12 @@
       <c r="A15" s="90">
         <v>1</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="179"/>
       <c r="F15" s="104">
         <v>0.05</v>
       </c>
@@ -5011,12 +5011,12 @@
         <f t="shared" ref="A16:A22" si="0">A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="155"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
       <c r="F16" s="103">
         <v>0.05</v>
       </c>
@@ -5035,12 +5035,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="155"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="103">
         <v>0.05</v>
       </c>
@@ -5059,12 +5059,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="161"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="182"/>
       <c r="F18" s="103">
         <v>0.05</v>
       </c>
@@ -5083,12 +5083,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="103">
         <v>0.05</v>
       </c>
@@ -5107,12 +5107,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
       <c r="F20" s="103">
         <v>0.05</v>
       </c>
@@ -5131,12 +5131,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="155"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="103">
         <v>0.05</v>
       </c>
@@ -5155,12 +5155,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B22" s="197" t="s">
+      <c r="B22" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="199"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="161"/>
       <c r="F22" s="105">
         <v>0.05</v>
       </c>
@@ -5185,25 +5185,25 @@
       <c r="D23" s="62"/>
       <c r="E23" s="64"/>
       <c r="F23" s="62"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
       <c r="I23" s="65"/>
       <c r="J23" s="130"/>
       <c r="K23" s="93">
         <f>SUM(H25:H27)</f>
-        <v>0.40610000000000002</v>
+        <v>0.4093</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="196" t="s">
+      <c r="B24" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="196"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
       <c r="F24" s="132" t="s">
         <v>71</v>
       </c>
@@ -5213,51 +5213,51 @@
       <c r="H24" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="194" t="s">
+      <c r="I24" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="194"/>
-      <c r="K24" s="195"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157"/>
     </row>
     <row r="25" spans="1:11" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="90">
         <v>1</v>
       </c>
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="187"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
       <c r="F25" s="104">
         <f>K5</f>
-        <v>0.78800000000000003</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="G25" s="57">
         <v>0.2</v>
       </c>
       <c r="H25" s="51">
         <f>F25*G25</f>
-        <v>0.15760000000000002</v>
-      </c>
-      <c r="I25" s="176">
+        <v>0.16080000000000003</v>
+      </c>
+      <c r="I25" s="134">
         <f>SUM(H25:H27)</f>
-        <v>0.40610000000000002</v>
-      </c>
-      <c r="J25" s="177"/>
-      <c r="K25" s="178"/>
+        <v>0.4093</v>
+      </c>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
         <f>A25+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="190"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="151"/>
       <c r="F26" s="103">
         <f>K9</f>
         <v>0.35499999999999998</v>
@@ -5269,21 +5269,21 @@
         <f>F26*G26</f>
         <v>0.24849999999999997</v>
       </c>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="181"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="139"/>
     </row>
     <row r="27" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92">
         <f>A26+1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="191" t="s">
+      <c r="B27" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="193"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
       <c r="F27" s="105">
         <f>K13</f>
         <v>0</v>
@@ -5295,9 +5295,9 @@
         <f>F27*G27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
     </row>
     <row r="28" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="94" t="s">
@@ -5468,13 +5468,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="B24:E24"/>
@@ -5483,31 +5501,13 @@
     <mergeCell ref="I25:K27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kpi ca nhan/nam 2020/ketqua/lanh dao.xlsx
+++ b/kpi ca nhan/nam 2020/ketqua/lanh dao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/kpi/kpi ca nhan/nam 2020/ketqua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B552518-8D7D-3B4B-9AFE-2F74E91150C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8215AAE5-B365-F64D-8282-09C89114B73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="24520" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,31 +2485,61 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="75" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="76" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="77" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="78" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="34" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="79" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="80" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2522,6 +2552,93 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="66" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="67" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="68" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="69" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="75" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="76" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="77" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="78" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="34" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="79" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="80" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2548,9 +2665,6 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="74" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2568,120 +2682,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="74" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="66" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="67" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="68" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="69" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3121,7 +3121,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection sqref="A1:K38"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3763,57 +3763,57 @@
   <sheetData>
     <row r="1" spans="1:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21"/>
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="194" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="196" t="s">
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="195" t="s">
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="198" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="195" t="s">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="76"/>
@@ -3828,7 +3828,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="1:11" s="60" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="60" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>40</v>
       </c>
@@ -3848,16 +3848,16 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="34" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
       <c r="F6" s="106" t="s">
         <v>49</v>
       </c>
@@ -3877,16 +3877,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="81">
         <v>1</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="193"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="150"/>
       <c r="F7" s="108">
         <v>0.4</v>
       </c>
@@ -3906,16 +3906,16 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="83">
         <v>2</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="188"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="107">
         <v>0.6</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0.46799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="60" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>41</v>
       </c>
@@ -3946,16 +3946,16 @@
       <c r="D9" s="62"/>
       <c r="E9" s="64"/>
       <c r="F9" s="62"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="65"/>
       <c r="J9" s="70"/>
       <c r="K9" s="85">
         <f>SUM(K10:K12)</f>
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="57.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>0.80499999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
         <v>55</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="111">
         <v>1</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="117">
         <v>2</v>
       </c>
@@ -4032,17 +4032,19 @@
       <c r="F12" s="128"/>
       <c r="G12" s="118"/>
       <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+      <c r="I12" s="120">
+        <v>0.9</v>
+      </c>
       <c r="J12" s="120">
         <f>I12</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K12" s="121">
         <f>J12*C12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="60" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="60" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>42</v>
       </c>
@@ -4053,8 +4055,8 @@
       <c r="D13" s="100"/>
       <c r="E13" s="99"/>
       <c r="F13" s="100"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
       <c r="I13" s="65"/>
       <c r="J13" s="70"/>
       <c r="K13" s="78">
@@ -4062,16 +4064,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="34" customFormat="1" ht="29" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
       <c r="F14" s="106" t="s">
         <v>60</v>
       </c>
@@ -4091,16 +4093,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="36" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="90">
         <v>1</v>
       </c>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="179"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
       <c r="F15" s="104">
         <v>0.05</v>
       </c>
@@ -4116,17 +4118,17 @@
       </c>
       <c r="K15" s="45"/>
     </row>
-    <row r="16" spans="1:11" s="36" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
         <f t="shared" ref="A16:A22" si="0">A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="145"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
       <c r="F16" s="103">
         <v>0.05</v>
       </c>
@@ -4140,17 +4142,17 @@
       <c r="J16" s="49"/>
       <c r="K16" s="46"/>
     </row>
-    <row r="17" spans="1:11" s="36" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="145"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155"/>
       <c r="F17" s="103">
         <v>0.05</v>
       </c>
@@ -4164,17 +4166,17 @@
       <c r="J17" s="49"/>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" spans="1:11" s="36" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="91">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="182"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="103">
         <v>0.05</v>
       </c>
@@ -4188,17 +4190,17 @@
       <c r="J18" s="49"/>
       <c r="K18" s="46"/>
     </row>
-    <row r="19" spans="1:11" s="36" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="91">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
       <c r="F19" s="103">
         <v>0.05</v>
       </c>
@@ -4212,17 +4214,17 @@
       <c r="J19" s="49"/>
       <c r="K19" s="46"/>
     </row>
-    <row r="20" spans="1:11" s="36" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="91">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
       <c r="F20" s="103">
         <v>0.05</v>
       </c>
@@ -4236,17 +4238,17 @@
       <c r="J20" s="49"/>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="1:11" s="36" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="91">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155"/>
       <c r="F21" s="103">
         <v>0.05</v>
       </c>
@@ -4260,17 +4262,17 @@
       <c r="J21" s="49"/>
       <c r="K21" s="46"/>
     </row>
-    <row r="22" spans="1:11" s="36" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="36" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="161"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="199"/>
       <c r="F22" s="105">
         <v>0.05</v>
       </c>
@@ -4284,7 +4286,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="47"/>
     </row>
-    <row r="23" spans="1:11" s="60" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="60" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>43</v>
       </c>
@@ -4295,25 +4297,25 @@
       <c r="D23" s="62"/>
       <c r="E23" s="64"/>
       <c r="F23" s="62"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
       <c r="I23" s="65"/>
       <c r="J23" s="70"/>
       <c r="K23" s="93">
         <f>SUM(H25:H27)</f>
-        <v>0.40610000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="34" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.72109999999999985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="34" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
       <c r="F24" s="106" t="s">
         <v>71</v>
       </c>
@@ -4323,22 +4325,22 @@
       <c r="H24" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="156" t="s">
+      <c r="I24" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="156"/>
-      <c r="K24" s="157"/>
-    </row>
-    <row r="25" spans="1:11" s="36" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="194"/>
+      <c r="K24" s="195"/>
+    </row>
+    <row r="25" spans="1:11" s="36" customFormat="1" ht="14" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="90">
         <v>1</v>
       </c>
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="187"/>
       <c r="F25" s="104">
         <f>K5</f>
         <v>0.78800000000000003</v>
@@ -4350,50 +4352,50 @@
         <f>F25*G25</f>
         <v>0.15760000000000002</v>
       </c>
-      <c r="I25" s="134">
+      <c r="I25" s="176">
         <f>SUM(H25:H27)</f>
-        <v>0.40610000000000002</v>
-      </c>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-    </row>
-    <row r="26" spans="1:11" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.72109999999999985</v>
+      </c>
+      <c r="J25" s="177"/>
+      <c r="K25" s="178"/>
+    </row>
+    <row r="26" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
         <f>A25+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="190"/>
       <c r="F26" s="103">
         <f>K9</f>
-        <v>0.35499999999999998</v>
+        <v>0.80499999999999994</v>
       </c>
       <c r="G26" s="58">
         <v>0.7</v>
       </c>
       <c r="H26" s="52">
         <f>F26*G26</f>
-        <v>0.24849999999999997</v>
-      </c>
-      <c r="I26" s="137"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="139"/>
-    </row>
-    <row r="27" spans="1:11" s="36" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.56349999999999989</v>
+      </c>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="181"/>
+    </row>
+    <row r="27" spans="1:11" s="36" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92">
         <f>A26+1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="193"/>
       <c r="F27" s="105">
         <f>K13</f>
         <v>0</v>
@@ -4405,11 +4407,11 @@
         <f>F27*G27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
-    </row>
-    <row r="28" spans="1:11" s="60" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="184"/>
+    </row>
+    <row r="28" spans="1:11" s="60" customFormat="1" ht="14" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="94" t="s">
         <v>44</v>
       </c>
@@ -4426,7 +4428,7 @@
       <c r="J28" s="68"/>
       <c r="K28" s="95"/>
     </row>
-    <row r="29" spans="1:11" s="44" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="44" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A29" s="96">
         <v>1</v>
       </c>
@@ -4443,7 +4445,7 @@
       <c r="J29" s="174"/>
       <c r="K29" s="175"/>
     </row>
-    <row r="30" spans="1:11" s="44" customFormat="1" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="97">
         <v>2</v>
       </c>
@@ -4592,27 +4594,15 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="40">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="I25:K27"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="B32:D32"/>
@@ -4623,15 +4613,27 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="F29:K29"/>
-    <mergeCell ref="I25:K27"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4644,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABA92D0-F00D-9147-B30D-E4C310FAC37E}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4653,57 +4655,57 @@
     <row r="1" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="194" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="196" t="s">
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="195" t="s">
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="198" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="195" t="s">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
     </row>
     <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
@@ -4742,12 +4744,12 @@
       <c r="A6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
       <c r="F6" s="132" t="s">
         <v>49</v>
       </c>
@@ -4771,12 +4773,12 @@
       <c r="A7" s="81">
         <v>1</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="193"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="150"/>
       <c r="F7" s="108">
         <v>0.4</v>
       </c>
@@ -4800,12 +4802,12 @@
       <c r="A8" s="83">
         <v>2</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="188"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="107">
         <v>0.6</v>
       </c>
@@ -4836,13 +4838,13 @@
       <c r="D9" s="62"/>
       <c r="E9" s="64"/>
       <c r="F9" s="62"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="65"/>
       <c r="J9" s="130"/>
       <c r="K9" s="85">
         <f>SUM(K10:K12)</f>
-        <v>0.35499999999999998</v>
+        <v>0.82000000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29" thickTop="1" x14ac:dyDescent="0.2">
@@ -4922,14 +4924,16 @@
       <c r="F12" s="128"/>
       <c r="G12" s="118"/>
       <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+      <c r="I12" s="120">
+        <v>0.93</v>
+      </c>
       <c r="J12" s="120">
         <f>I12</f>
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="K12" s="121">
         <f>J12*C12</f>
-        <v>0</v>
+        <v>0.46500000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4943,8 +4947,8 @@
       <c r="D13" s="100"/>
       <c r="E13" s="99"/>
       <c r="F13" s="100"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
       <c r="I13" s="65"/>
       <c r="J13" s="130"/>
       <c r="K13" s="78">
@@ -4956,12 +4960,12 @@
       <c r="A14" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
       <c r="F14" s="132" t="s">
         <v>60</v>
       </c>
@@ -4985,12 +4989,12 @@
       <c r="A15" s="90">
         <v>1</v>
       </c>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="179"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
       <c r="F15" s="104">
         <v>0.05</v>
       </c>
@@ -5011,12 +5015,12 @@
         <f t="shared" ref="A16:A22" si="0">A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="145"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
       <c r="F16" s="103">
         <v>0.05</v>
       </c>
@@ -5035,12 +5039,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="145"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155"/>
       <c r="F17" s="103">
         <v>0.05</v>
       </c>
@@ -5059,12 +5063,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="182"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="103">
         <v>0.05</v>
       </c>
@@ -5083,12 +5087,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
       <c r="F19" s="103">
         <v>0.05</v>
       </c>
@@ -5107,12 +5111,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
       <c r="F20" s="103">
         <v>0.05</v>
       </c>
@@ -5131,12 +5135,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155"/>
       <c r="F21" s="103">
         <v>0.05</v>
       </c>
@@ -5155,12 +5159,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="161"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="199"/>
       <c r="F22" s="105">
         <v>0.05</v>
       </c>
@@ -5185,25 +5189,25 @@
       <c r="D23" s="62"/>
       <c r="E23" s="64"/>
       <c r="F23" s="62"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
       <c r="I23" s="65"/>
       <c r="J23" s="130"/>
       <c r="K23" s="93">
         <f>SUM(H25:H27)</f>
-        <v>0.4093</v>
+        <v>0.73480000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
       <c r="F24" s="132" t="s">
         <v>71</v>
       </c>
@@ -5213,22 +5217,22 @@
       <c r="H24" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="156" t="s">
+      <c r="I24" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="156"/>
-      <c r="K24" s="157"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="195"/>
     </row>
     <row r="25" spans="1:11" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="90">
         <v>1</v>
       </c>
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="187"/>
       <c r="F25" s="104">
         <f>K5</f>
         <v>0.80400000000000005</v>
@@ -5240,50 +5244,50 @@
         <f>F25*G25</f>
         <v>0.16080000000000003</v>
       </c>
-      <c r="I25" s="134">
+      <c r="I25" s="176">
         <f>SUM(H25:H27)</f>
-        <v>0.4093</v>
-      </c>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="J25" s="177"/>
+      <c r="K25" s="178"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
         <f>A25+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="190"/>
       <c r="F26" s="103">
         <f>K9</f>
-        <v>0.35499999999999998</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="G26" s="58">
         <v>0.7</v>
       </c>
       <c r="H26" s="52">
         <f>F26*G26</f>
-        <v>0.24849999999999997</v>
-      </c>
-      <c r="I26" s="137"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="139"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="181"/>
     </row>
     <row r="27" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92">
         <f>A26+1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="193"/>
       <c r="F27" s="105">
         <f>K13</f>
         <v>0</v>
@@ -5295,9 +5299,9 @@
         <f>F27*G27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="184"/>
     </row>
     <row r="28" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="94" t="s">
@@ -5468,12 +5472,17 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="A2:B2"/>
@@ -5490,11 +5499,12 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="B25:E25"/>
@@ -5502,12 +5512,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F30:K30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
